--- a/LotteryRiskCalculation/src/main/resources/500/2014-10-07_足球彩票_风险收益（赔率加赛况）计算.xlsx
+++ b/LotteryRiskCalculation/src/main/resources/500/2014-10-07_足球彩票_风险收益（赔率加赛况）计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="840" windowWidth="17600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2014-10-07" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/LotteryRiskCalculation/src/main/resources/500/2014-10-07_足球彩票_风险收益（赔率加赛况）计算.xlsx
+++ b/LotteryRiskCalculation/src/main/resources/500/2014-10-07_足球彩票_风险收益（赔率加赛况）计算.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="7860" yWindow="780" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014-10-07" sheetId="1" r:id="rId1"/>
+    <sheet name="2014-10-09" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>哈特力普</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +115,94 @@
   </si>
   <si>
     <t>客队联赛级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.55,2.95,2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西班牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,4.55,1.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5，3.1,1.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,3,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,12 +245,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,18 +268,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -619,6 +728,156 @@
       </c>
       <c r="J3" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/LotteryRiskCalculation/src/main/resources/500/2014-10-07_足球彩票_风险收益（赔率加赛况）计算.xlsx
+++ b/LotteryRiskCalculation/src/main/resources/500/2014-10-07_足球彩票_风险收益（赔率加赛况）计算.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="780" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014-10-07" sheetId="1" r:id="rId1"/>
-    <sheet name="2014-10-09" sheetId="2" r:id="rId2"/>
+    <sheet name="2014-10-10" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.5，3.1,1.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>6,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5,3.1,1.95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +747,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -856,7 +859,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -865,19 +868,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
